--- a/biology/Médecine/Nerf_calcanéen_médial/Nerf_calcanéen_médial.xlsx
+++ b/biology/Médecine/Nerf_calcanéen_médial/Nerf_calcanéen_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_calcan%C3%A9en_m%C3%A9dial</t>
+          <t>Nerf_calcanéen_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le nerf calcanéen médial (ou rameau calcanéen médial du nerf tibial) est un nerf sensitif du pied.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_calcan%C3%A9en_m%C3%A9dial</t>
+          <t>Nerf_calcanéen_médial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf calcanéen médial est une branche collatérale du nerf tibial qui nait dans la région rétro-malléolaire interne.
-Variation
-Il peut naitre du nerf plantaire latéral[1].
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_calcan%C3%A9en_m%C3%A9dial</t>
+          <t>Nerf_calcanéen_médial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le nerf calcanéen médial se termine en plusieurs filets terminaux dans la plante du pied qui sont parfois réunis en un tronc commun formant le nerf cutané plantaire.
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut naitre du nerf plantaire latéral.
 </t>
         </is>
       </c>
@@ -558,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_calcan%C3%A9en_m%C3%A9dial</t>
+          <t>Nerf_calcanéen_médial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf calcanéen médial se termine en plusieurs filets terminaux dans la plante du pied qui sont parfois réunis en un tronc commun formant le nerf cutané plantaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_calcanéen_médial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_calcan%C3%A9en_m%C3%A9dial</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf calcanéen médial innerve la peau du talon et la face médiale de la plante du pied[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf calcanéen médial innerve la peau du talon et la face médiale de la plante du pied.
 </t>
         </is>
       </c>
